--- a/biology/Histoire de la zoologie et de la botanique/Volker_Mahnert/Volker_Mahnert.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Volker_Mahnert/Volker_Mahnert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Volker Mahnert est un arachnologiste, entomologiste et ichtyologiste autrichien et suisse né le 3 décembre 1943 à Innsbruck, et mort le 23 novembre 2018 à Genève. Il est le directeur du Muséum d'histoire naturelle de Genève de 1989 à 2005, et également professeur à l'Université de Genève.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Volker Mahnert naît le 3 décembre 1943 à Innsbruck, en Autriche, où il effectue ses études. Se destinant d'abord vers la médecine, il s'oriente finalement vers la biologie et obtient son doctorat en 1970 des universités d'Innsbruck et de Vienne. Sa thèse porte sur les endo- et ectoparasites des petits mammifères du Tyrol du Nord[1]. Il est engagé en tant que conservateur du département d'herpétologie et d'ichtyologie au Muséum d'histoire naturelle de Genève à partir de 1971, avant de prendre la direction du muséum le 1er août 1989, succédant à Villy Aellen. Il dirige la Revue suisse de Zoologie à partir de 1989, devient professeur associé au département de zoologie et de biologie animale de l'Université de Genève en 1991[1]. Il crée la série de monographies Instrumenta Biodiversitatis en 1997, qu'il dirige ensuite.
-En 2005, il assure quelques mois la direction intérimaire du Musée d'ethnographie de Genève en plus de ses autres fonctions, puis prend sa retraite académique et administrative en décembre de la même année. Le Conseil administratif de la ville de Genève lui octroie alors le titre de directeur honoraire[1], et Mahnert continue de mener ses recherches personnelles en zoologie et de publier jusqu'en 2017. Il meurt à Genève le 23 novembre 2018[2].
-Volker Mahnert est l'auteur de près de 200 publications scientifiques[1]. Il a principalement publié en arachnologie, étant un éminent spécialiste des pseudoscorpions, et a entre autres collaboré avec l'australien Mark S. Harvey. Il a également contribué à l'étude des poissons cyprinidés d'Afrique et des Characiformes d'Afrique et de d'Amérique du Sud, publiant notamment avec Jacques Géry, puis Sonia Fisch-Muller. Enfin, il signe quelques publications sur les siphonaptères et d'autres parasites, et quelques notes sur des reptiles et des mammifères.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Volker Mahnert naît le 3 décembre 1943 à Innsbruck, en Autriche, où il effectue ses études. Se destinant d'abord vers la médecine, il s'oriente finalement vers la biologie et obtient son doctorat en 1970 des universités d'Innsbruck et de Vienne. Sa thèse porte sur les endo- et ectoparasites des petits mammifères du Tyrol du Nord. Il est engagé en tant que conservateur du département d'herpétologie et d'ichtyologie au Muséum d'histoire naturelle de Genève à partir de 1971, avant de prendre la direction du muséum le 1er août 1989, succédant à Villy Aellen. Il dirige la Revue suisse de Zoologie à partir de 1989, devient professeur associé au département de zoologie et de biologie animale de l'Université de Genève en 1991. Il crée la série de monographies Instrumenta Biodiversitatis en 1997, qu'il dirige ensuite.
+En 2005, il assure quelques mois la direction intérimaire du Musée d'ethnographie de Genève en plus de ses autres fonctions, puis prend sa retraite académique et administrative en décembre de la même année. Le Conseil administratif de la ville de Genève lui octroie alors le titre de directeur honoraire, et Mahnert continue de mener ses recherches personnelles en zoologie et de publier jusqu'en 2017. Il meurt à Genève le 23 novembre 2018.
+Volker Mahnert est l'auteur de près de 200 publications scientifiques. Il a principalement publié en arachnologie, étant un éminent spécialiste des pseudoscorpions, et a entre autres collaboré avec l'australien Mark S. Harvey. Il a également contribué à l'étude des poissons cyprinidés d'Afrique et des Characiformes d'Afrique et de d'Amérique du Sud, publiant notamment avec Jacques Géry, puis Sonia Fisch-Muller. Enfin, il signe quelques publications sur les siphonaptères et d'autres parasites, et quelques notes sur des reptiles et des mammifères.
 			Au microscope.
 </t>
         </is>
@@ -545,75 +559,77 @@
           <t>Éponymies</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">De nombreux taxons ont été nommés en hommage à Volker Mahnert, dont au moins les quatre genres suivants :
-Mahnertella Mahunka,1997[3]
+Mahnertella Mahunka,1997
 Mahnertellina Kontschán, 2020
-Mahnertius Harvey &amp; Muchmore, 2013[4]
-Mahnertozetes Mahunka &amp; Mahunka-Papp, 2009[5]
-Ainsi que les 60 espèces ou sous-espèces animales suivantes[6] :
-Acanthocreagris mahnerti Dumitresco &amp; Orghidan, 1986[7]
-Acritus mahnerti Gomy, 1981[8]
-Akyttara mahnerti Jocqué, 1987[9]
-Allochernes mahnerti Georgescu &amp; Căpuse, 1996[10]
-Allolobophora handlirschi mahnerti Zicsi, 1973[11], désormais Aporrectodea handlirschi mahnerti (Zicsi, 1973)
-Americhernes mahnerti Harvey, 1990[12]
-Apimela mahnerti Pace, 1996[13]
-Atheta mahnerti Pace, 1995[14]
-Ausobskya mahnerti Silhavý, 1976[15]
-Bothriechis mahnerti Schätti &amp; Kramer, 1991[16], depuis synonymisé avec Bothrops punctatus (Garcia, 1896)
-Camillina mahnerti Platnick &amp; Murphy, 1987[17]
-Catharosoma mahnerti Golovatch, 2005[18]
-Centruroides mahnerti Lourenço, 1983[19]
-Chactas mahnerti Lourenço, 1995[20]
-Chthonius (Ephippiochthonius) mahnerti Zaragoza, 1984[21]
-Ctenobelba mahnerti Mahunka, 1974[22]
-Cypha mahnerti Pace, 1994[23]
-Delamarea mahnerti Leleup, 1983[24]
-Dendrobaena mahnerti Zicsi, 1974[25]
-Dolicheremaeus mahnerti Mahunka &amp; Mahunka-Papp, 2009[5]
-Drusilla mahnerti Pace, 1996[13]
+Mahnertius Harvey &amp; Muchmore, 2013
+Mahnertozetes Mahunka &amp; Mahunka-Papp, 2009
+Ainsi que les 60 espèces ou sous-espèces animales suivantes :
+Acanthocreagris mahnerti Dumitresco &amp; Orghidan, 1986
+Acritus mahnerti Gomy, 1981
+Akyttara mahnerti Jocqué, 1987
+Allochernes mahnerti Georgescu &amp; Căpuse, 1996
+Allolobophora handlirschi mahnerti Zicsi, 1973, désormais Aporrectodea handlirschi mahnerti (Zicsi, 1973)
+Americhernes mahnerti Harvey, 1990
+Apimela mahnerti Pace, 1996
+Atheta mahnerti Pace, 1995
+Ausobskya mahnerti Silhavý, 1976
+Bothriechis mahnerti Schätti &amp; Kramer, 1991, depuis synonymisé avec Bothrops punctatus (Garcia, 1896)
+Camillina mahnerti Platnick &amp; Murphy, 1987
+Catharosoma mahnerti Golovatch, 2005
+Centruroides mahnerti Lourenço, 1983
+Chactas mahnerti Lourenço, 1995
+Chthonius (Ephippiochthonius) mahnerti Zaragoza, 1984
+Ctenobelba mahnerti Mahunka, 1974
+Cypha mahnerti Pace, 1994
+Delamarea mahnerti Leleup, 1983
+Dendrobaena mahnerti Zicsi, 1974
+Dolicheremaeus mahnerti Mahunka &amp; Mahunka-Papp, 2009
+Drusilla mahnerti Pace, 1996
 Edaphus mahnerti Puthz, 1990
-Elgonidium mahnerti Bonadona, 1978[26]
-Embuana mahnerti Heiss &amp; Baňař, 2016[27]
-Epipleuria mahnerti Fürsch, 2001[28]
-Glossodrilus mahnerti Zicsi, 1989[29]
-Guaraniella mahnerti Baert, 1984[30]
-Gyrophaena mahnerti Pace, 1994[23]
-Helladocampa mahnerti Condé, 1984[31]
-Hemigrammus mahnerti Uj &amp; Géry, 1989[32]
-Holoparasitus mahnerti Juvara-Bals, 2008[33]
+Elgonidium mahnerti Bonadona, 1978
+Embuana mahnerti Heiss &amp; Baňař, 2016
+Epipleuria mahnerti Fürsch, 2001
+Glossodrilus mahnerti Zicsi, 1989
+Guaraniella mahnerti Baert, 1984
+Gyrophaena mahnerti Pace, 1994
+Helladocampa mahnerti Condé, 1984
+Hemigrammus mahnerti Uj &amp; Géry, 1989
+Holoparasitus mahnerti Juvara-Bals, 2008
 Leleupiozethus mahnerti Coulon, 1979
-Magellozetes mahnerti Mahunka, 1984[34]
-Megarthrus mahnerti Cuccodoro &amp; Löbl, 1995[35]
-Metanapis mahnerti Brignoli, 1981[36]
-Metopioxys mahnerti Comellini, 1983[37]
-Microdipnites mahnerti Garetto &amp; Giachino, 1999[38]
-Microplana mahnerti Minelli, 1977[39]
-Neobisium mahnerti Heurtault, 1980[40]
-Occidenchthonius mahnerti Zaragoza, 2017[41]
-Oedichirus mahnerti de Rougemont, 2018[42]
-Oonops mahnerti Brignoli, 1974[43]
-Origmatrachys mahnerti Kontschán, 2020[44]
-Paracoryza mahnerti Balkenohl, 2000[45]
-Paratemnus mahnerti Sivaraman, 1981[46], désormais Paratemnoides mahnerti (Sivaraman, 1981)
-Paratricommatus mahnerti Soares &amp; Soares, 1985[47]
-Proteocephalus mahnerti de Chambrier &amp; Vaucher, 1999[48]
-Ptychadena mahnerti Perret, 1996[49]
-Raillietina mahnerti Mariaux &amp; Georgiev, 2020[50]
-Roncus mahnerti Ćurčić &amp; Beron, 1981[51]
-Scaphoxium mahnerti Löbl, 2010[52]
+Magellozetes mahnerti Mahunka, 1984
+Megarthrus mahnerti Cuccodoro &amp; Löbl, 1995
+Metanapis mahnerti Brignoli, 1981
+Metopioxys mahnerti Comellini, 1983
+Microdipnites mahnerti Garetto &amp; Giachino, 1999
+Microplana mahnerti Minelli, 1977
+Neobisium mahnerti Heurtault, 1980
+Occidenchthonius mahnerti Zaragoza, 2017
+Oedichirus mahnerti de Rougemont, 2018
+Oonops mahnerti Brignoli, 1974
+Origmatrachys mahnerti Kontschán, 2020
+Paracoryza mahnerti Balkenohl, 2000
+Paratemnus mahnerti Sivaraman, 1981, désormais Paratemnoides mahnerti (Sivaraman, 1981)
+Paratricommatus mahnerti Soares &amp; Soares, 1985
+Proteocephalus mahnerti de Chambrier &amp; Vaucher, 1999
+Ptychadena mahnerti Perret, 1996
+Raillietina mahnerti Mariaux &amp; Georgiev, 2020
+Roncus mahnerti Ćurčić &amp; Beron, 1981
+Scaphoxium mahnerti Löbl, 2010
 Scheloribates mahnerti Mahunka &amp; Mahunka-Papp, 2008
-Schistura mahnerti Kottelat, 1990[53]
+Schistura mahnerti Kottelat, 1990
 Scutacarus mahnerti Mahunka, 1972
-Spelaeobochica mahnerti Viana &amp; Ferreira, 2020[54]
-Sprentascaris mahnerti Petter &amp; Cassone, 1984[55], désormais Raphidascaris (Sprentascaris) mahnerti (Petter &amp; Cassone, 1984)
-Stenohya mahnerti Schawaller, 1994[56]
-Trichouropoda mahnerti Kontschán, 2015[57]
-Zodarion mahnerti Brignoli, 1984[58]
-Zyras (Pycnodonia) mahnerti Pace, 1996[13]
-Un minéral, la mahnertite, est également nommé en l'honneur de ce zoologiste[59].
+Spelaeobochica mahnerti Viana &amp; Ferreira, 2020
+Sprentascaris mahnerti Petter &amp; Cassone, 1984, désormais Raphidascaris (Sprentascaris) mahnerti (Petter &amp; Cassone, 1984)
+Stenohya mahnerti Schawaller, 1994
+Trichouropoda mahnerti Kontschán, 2015
+Zodarion mahnerti Brignoli, 1984
+Zyras (Pycnodonia) mahnerti Pace, 1996
+Un minéral, la mahnertite, est également nommé en l'honneur de ce zoologiste.
 </t>
         </is>
       </c>
@@ -642,35 +658,37 @@
           <t>Taxons décrits</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Genres et sous-genres :
-Acanthocreagris Mahnert, 1974[60]
-Afroroncus Mahnert, 1981[61]
-Alectopsylla Mahnert, 1976[62]
-Attaleachernes Mahnert, 2009[63]
-Beierochelifer Mahnert, 1977[64]
-Beierowithius Mahnert, 1979[65]
-Caecatemnus Mahnert, 1985[66]
-Cardiolpium Mahnert, 1986[67]
-Ceratochernes Mahnert, 1994[68]
-Halominniza Mahnert, 1975[69]
-Leptocheiridium Mahnert &amp; Schmidl, 2011[70]
-Microblothrus Mahnert, 1985[66]
-Phymatochernes Mahnert, 1979[65]
-Pseudomenthus Mahnert, 2007[71]
-Roncocreagris Mahnert, 1974, originellement décrit comme le sous-genre Microcreagris (Roncocreagris) Mahnert, 1974[60]
+Acanthocreagris Mahnert, 1974
+Afroroncus Mahnert, 1981
+Alectopsylla Mahnert, 1976
+Attaleachernes Mahnert, 2009
+Beierochelifer Mahnert, 1977
+Beierowithius Mahnert, 1979
+Caecatemnus Mahnert, 1985
+Cardiolpium Mahnert, 1986
+Ceratochernes Mahnert, 1994
+Halominniza Mahnert, 1975
+Leptocheiridium Mahnert &amp; Schmidl, 2011
+Microblothrus Mahnert, 1985
+Phymatochernes Mahnert, 1979
+Pseudomenthus Mahnert, 2007
+Roncocreagris Mahnert, 1974, originellement décrit comme le sous-genre Microcreagris (Roncocreagris) Mahnert, 1974
 Selachochernes Mahnert, 2011
-Spelaeobochica Mahnert, 2001[72]
-Spelaeochernes Mahnert, 2001[72]
-Sphaerowithius Mahnert, 1988[73]
-Xorilbia Harvey &amp; Mahnert, 2006[74]
+Spelaeobochica Mahnert, 2001
+Spelaeochernes Mahnert, 2001
+Sphaerowithius Mahnert, 1988
+Xorilbia Harvey &amp; Mahnert, 2006
 Espèces et sous-espèces :
 Acanthocreagris aelleni Mahnert, 1978
-Acanthocreagris beieri Mahnert, 1974[60]
+Acanthocreagris beieri Mahnert, 1974
 Acanthocreagris corcyraea Mahnert, 1976
-Acanthocreagris corsa Mahnert, 1974[60]
-Acanthocreagris leucadia epirensis Mahnert, 1974[60]
+Acanthocreagris corsa Mahnert, 1974
+Acanthocreagris leucadia epirensis Mahnert, 1974
 Acanthocreagris lycaonis Mahnert, 1978
 Acanthocreagris obtusa Mahnert, 1976
 Acanthocreagris relicta Mahnert, 1977
@@ -680,19 +698,19 @@
 Afroroncus sulcatus Mahnert, 1981
 Albiorix gracilis Mahnert, 1985
 Albiorix lamellifer Mahnert, 1985
-Alectopsylla unisetosa Mahnert, 1976[62]
-Allochernes longepilosus Mahnert, 1997[75]
-Allochernes maroccanus Mahnert, 1976[76]
+Alectopsylla unisetosa Mahnert, 1976
+Allochernes longepilosus Mahnert, 1997
+Allochernes maroccanus Mahnert, 1976
 Allochernes peregrinans Mahnert, 2009
 Amblyolpium graecum Mahnert, 1976
 Americhernes bethaniae Mahnert, 1979
 Americhernes incertus Mahnert, 1979
 Anaperochernes margaritifer Mahnert, 1985
-Apocheiridium cavicola Mahnert, 1993[77]
+Apocheiridium cavicola Mahnert, 1993
 Apocheiridium lienhardi Mahnert, 2011
 Apocheiridium pallidum Mahnert, 1982
 Apolpiolum gigas Mahnert, 1980
-Attaleachernes thaleri Mahnert, 2009[63]
+Attaleachernes thaleri Mahnert, 2009
 Barbus condei Mahnert &amp; Géry, 1982
 Barbus prionacanthus Mahnert &amp; Géry, 1982
 Beierolpium benoiti Mahnert, 1978
@@ -700,14 +718,14 @@
 Beierolpium holmi Mahnert, 1982
 Beierolpium kerioense Mahnert, 1982
 Beierolpium tanense Mahnert, 1982
-Beierolpium vanharteni Mahnert, 2007[71]
+Beierolpium vanharteni Mahnert, 2007
 Bisetocreagris baozinensis Mahnert &amp; Li, 2016
 Bisetocreagris cavernarum Mahnert &amp; Li, 2016
 Bisetocreagris chuanensis Mahnert &amp; Li, 2016
 Bisetocreagris juanxuae Mahnert &amp; Li, 2016
 Brycinus derhami Géry &amp; Mahnert, 1977
 Brycinus longipinnis bagbeensis Géry &amp; Mahnert, 1977
-Caecatemnus setosipygus Mahnert, 1985[66]
+Caecatemnus setosipygus Mahnert, 1985
 Caffrowithius biseriatus Mahnert, 1983
 Caffrowithius planicola Mahnert, 1982
 Calocheiridius gracilipalpus Mahnert, 1982
@@ -743,7 +761,7 @@
 Chthonius longesetosus Mahnert, 1976, désormais Ephippiochthonius longesetosus (Mahnert, 1976)
 Chthonius lopezi Mahnert, 2011, désormais Occidenchthonius lopezi (Mahnert, 2011)
 Chthonius lucifugus Mahnert, 1977
-Chthonius maltensis Mahnert, 1975[78]
+Chthonius maltensis Mahnert, 1975
 Chthonius maroccanus Mahnert, 1980, désormais Ephippiochthonius maroccanus (Mahnert, 1980)
 Chthonius minous Mahnert, 1980, désormais Ephippiochthonius minous (Mahnert, 1980)
 Chthonius minous minous Mahnert, 1980, désormais Ephippiochthonius minous minous (Mahnert, 1980)
@@ -753,39 +771,39 @@
 Chthonius platakisi Mahnert, 1980, désormais Ephippiochthonius platakisi (Mahnert, 1980)
 Chthonius poeninus Mahnert, 1979, désormais Globochthonius poeninus (Mahnert, 1979)
 Chthonius ponsi Mahnert, 1993
-Chthonius ponticoides Mahnert, 1975[79]
+Chthonius ponticoides Mahnert, 1975
 Chthonius rimicola Mahnert, 1993
 Chthonius samius Mahnert, 1982
 Chthonius sestasi Mahnert, 1980
 Chthonius setosus Mahnert, 1993
-Chthonius strinatii Mahnert, 1975[79]
+Chthonius strinatii Mahnert, 1975
 Chthonius tamaran Mahnert, 2011
 Chthonius tenerifae Mahnert, 2011
 Chthonius thessalus Mahnert, 1980
-Chthonius tzanoudakisi Mahnert, 1975[79]
+Chthonius tzanoudakisi Mahnert, 1975
 Creagrutus paraguayensis Mahnert &amp; Géry, 1988
 Creagrutus pearsoni Mahnert &amp; Géry, 1988
 Cryptocheiridium confundens Mahnert, 2014
-Ctenophthalmus (Ethioctenophthalmus) digitosignatus Mahnert, 1977[80]
+Ctenophthalmus (Ethioctenophthalmus) digitosignatus Mahnert, 1977
 Cyclatemnus brevidigitatus Mahnert, 1978
 Dactylochelifer arabicus Mahnert, 1991
-Dactylochelifer besucheti Mahnert, 1978[81]
-Dactylochelifer scaurus Mahnert, 1978[81]
+Dactylochelifer besucheti Mahnert, 1978
+Dactylochelifer scaurus Mahnert, 1978
 Dactylochelifer vtorovi Mahnert, 1977
 Dasychernes panamensis Mahnert, 1987
 Dasychernes roubiki Mahnert, 1987
 Dasychernes trigonae Mahnert, 1987
 Dhanus pohli Mahnert, 2007
 Dhanus socotraensis Mahnert, 2007
-Dhanus taitii Mahnert, 2007[71]
+Dhanus taitii Mahnert, 2007
 Dolichowithius intermedius Mahnert, 1979
 Dolichowithius mediofasciatus Mahnert, 1979
 Dolichowithius minutus Mahnert, 1979
-Elattogarypus cicatricosus Mahnert, 2007[71]
+Elattogarypus cicatricosus Mahnert, 2007
 Elattogarypus somalicus Mahnert, 1984
 Feaella perreti Mahnert, 1982
 Garypinus nicolaii Mahnert, 1988
-Garypus darsahensis Mahnert, 2007[71]
+Garypus darsahensis Mahnert, 2007
 Garypus granosus Mahnert, 2014
 Garypus marmoratus Mahnert, 1982
 Garypus occultus Mahnert, 1982
@@ -793,12 +811,12 @@
 Geogarypus ocellatus Mahnert, 1978
 Geogarypus plumatus Mahnert, 1982
 Geogarypus pseudocurtus Mahnert, 1982
-Geogarypus quadrimaculatus Mahnert, 2007[71]
+Geogarypus quadrimaculatus Mahnert, 2007
 Geogarypus stellifer Mahnert, 1982
 Halominniza oromii Mahnert, 1997
-Halominniza parentorum Mahnert, 1975[69]
-Halominniza taitii Mahnert, 2007[71]
-Haplochernes nanus Mahnert, 1975[69]
+Halominniza parentorum Mahnert, 1975
+Halominniza taitii Mahnert, 2007
+Haplochernes nanus Mahnert, 1975
 Hectopsylla gracilis Mahnert, 1982
 Hemigrammus bleheri Géry &amp; Mahnert, 1986
 Hyphessobrycon guarani Mahnert &amp; Géry, 1987
@@ -823,7 +841,7 @@
 Ideoroncus paranensis Mahnert, 1984
 Ideoroncus setosus Mahnert, 1984
 Lagynochthonius curvidigitatus Mahnert, 1997
-Lagynochthonius insulanus Mahnert, 2007[71]
+Lagynochthonius insulanus Mahnert, 2007
 Lagynochthonius lopezi Mahnert, 2011
 Lagynochthonius microdentatus Mahnert, 2011
 Lagynochthonius oromii Mahnert, 2011
@@ -831,8 +849,8 @@
 Lagynochthonius tenuimanus Mahnert, 2011
 Lechytia dentata Mahnert, 1978
 Leporinus falcipinnis Mahnert, Géry &amp; Muller, 1997
-Leptocheiridium pfeiferae Mahnert &amp; Schmidl, 2011[70]
-Levigatocreagris hamatus Leclerc &amp; Mahnert, 1988[82]
+Leptocheiridium pfeiferae Mahnert &amp; Schmidl, 2011
+Levigatocreagris hamatus Leclerc &amp; Mahnert, 1988
 Lophochelifer gracilipes Mahnert, 1988, désormais Lissochelifer gracilipes (Mahnert, 1988)
 Lophochelifer nairobiensis Mahnert, 1988, désormais Lissochelifer nairobiensis (Mahnert, 1988)
 Maxchernes iporangae Mahnert &amp; Andrade, 1998
@@ -887,17 +905,17 @@
 Nudochernes gracilimanus Mahnert, 1982
 Nudochernes lipsae Mahnert, 2003
 Nudochernes troglobius Mahnert, 2009
-Olpium flavum Mahnert, 2007[71]
+Olpium flavum Mahnert, 2007
 Olpium halophilum Mahnert, 1982
-Olpium kuriense Mahnert, 2007[71]
-Olpium milneri Mahnert, 2007[71]
+Olpium kuriense Mahnert, 2007
+Olpium milneri Mahnert, 2007
 Olpium omanense Mahnert, 1991
-Olpium socotraense Mahnert, 2007[71]
-Olpium vanharteni Mahnert, 2007[71]
-Pachyolpium atlanticum Mahnert &amp; R. Schuster, 1981[83]
+Olpium socotraense Mahnert, 2007
+Olpium vanharteni Mahnert, 2007
+Pachyolpium atlanticum Mahnert &amp; R. Schuster, 1981
 Pachyolpium irmgardae Mahnert, 1979
 Parachernes (Parachernes) adisi Mahnert, 1979
-Parachernes (Parachernes) gracilimanus Mahnert, 1986[84]
+Parachernes (Parachernes) gracilimanus Mahnert, 1986
 Parachernes (Parachernes) inpai Mahnert, 1979
 Parachernes niger Mahnert, 1987
 Parachernes (Parachernes) ovatus Mahnert, 1979
@@ -911,7 +929,7 @@
 Paraliochthonius pecki Mahnert, 2014
 Paraliochthonius rupicola Mahnert, 2014
 Paraliochthonius tenebrarum Mahnert, 1989
-Paramenthus nanus Mahnert, 2007[71]
+Paramenthus nanus Mahnert, 2007
 Parawithius (Victorwithius) coniger Mahnert, 1979, désormais Victorwithius coniger (Mahnert, 1979)
 Parawithius (Victorwithius) gracilimanus Mahnert, 1979, désormais Victorwithius gracilimanus (Mahnert, 1979)
 Parobisium martii Mahnert, 2003
@@ -920,7 +938,7 @@
 Petterchernes tuberculatus Mahnert, 1994
 Phymatochernes crassimanus Mahnert, 1979
 Piabarchus torrenticola Mahnert &amp; Géry, 1988
-Pilochelifer insularis gracilior Mahnert, 1975[69]
+Pilochelifer insularis gracilior Mahnert, 1975
 Plesiochernes bergeri Mahnert, 1978, désormais Caffrowithius bergeri (Mahnert, 1978)
 Plocopsylla angusticeps Mahnert, 1982
 Progarypus gracilis Mahnert, 2001
@@ -943,35 +961,35 @@
 Pseudohorus luscus Mahnert, 1982
 Pseudohorus pilosus Mahnert, 1982
 Pseudohorus vermis Mahnert, 1982
-Pseudomenthus spinifer Mahnert, 2007[71]
+Pseudomenthus spinifer Mahnert, 2007
 Pseudomenthus uniseriatus Mahnert, 2007
 Pseudopilanus crassifemoratus Mahnert, 1985
 Pseudorhacochelifer canariensis Mahnert, 1997
 Pycnowithius cavernicola Mahnert, 1988
 Rhacochelifer barkhamae Mahnert, 1980
 Rhacochelifer corcyrensis procerus Mahnert, 1978
-Rhacochelifer euboicus Mahnert, 1977[64]
+Rhacochelifer euboicus Mahnert, 1977
 Rhacochelifer gracilimanus Mahnert, 1993
 Rhacochelifer sonyae Mahnert, 1991
 Rhacochelifer spiniger Mahnert, 1978, désormais Pseudorhacochelifer spiniger (Mahnert, 1978)
 Roncocreagris beieri Mahnert, 1976
 Roncus boneti tarbenae Mahnert, 1977
 Roncus comasi Mahnert, 1985
-Roncus corcyraeus minor Mahnert, 1975[79]
+Roncus corcyraeus minor Mahnert, 1975
 Roncus gasparoi Mahnert &amp; Gardini, 2014
 Roncus giachinoi Mahnert &amp; Gardini, 2014
 Roncus giganteus Mahnert, 1973
 Roncus paolettii Mahnert, 1980
 Roncus pieperi Mahnert &amp; Gardini, 2014
 Roncus puddui Mahnert, 1976
-Roncus viti Mahnert, 1974[85]
+Roncus viti Mahnert, 1974
 Selachochernes allodentatus Mahnert, 2011
 Serianus elongatus Mahnert, 2014
 Serianus maritimus Mahnert, 2014
 Serianus sahariensis Mahnert, 1988
 Spelaeobochica allodentatus Mahnert, 2001
 Spelaeobochica iuiu Ratton, Mahnert &amp; Ferreira, 2012
-Spelaeobochica muchmorei Andrade &amp; Mahnert, 2003[86]
+Spelaeobochica muchmorei Andrade &amp; Mahnert, 2003
 Spelaeochernes altamirae Mahnert, 2001
 Spelaeochernes armatus Mahnert, 2001
 Spelaeochernes bahiensis Mahnert, 2001
@@ -980,14 +998,14 @@
 Spelaeochernes eleonorae Mahnert, 2001
 Spelaeochernes gracilipalpus Mahnert, 2001
 Spelaeochernes pedroi Mahnert, 2001
-Sphaerowithius ansieae Harvey &amp; Mahnert, 2015[87]
+Sphaerowithius ansieae Harvey &amp; Mahnert, 2015
 Stenolpium fasciculatum Mahnert, 1984
 Thaumastogarypus mancus Mahnert, 1982
-Thaumatowithius aberrans Mahnert, 1975[69]
+Thaumatowithius aberrans Mahnert, 1975
 Titanatemnus tanensis Mahnert, 1983
 Tridenchthonius beieri Mahnert, 1983
 Tridenchthonius brasiliensis Mahnert, 1979
-Typhloceras poppei orientalis Mahnert &amp; Beaucournu, 1985[88]
+Typhloceras poppei orientalis Mahnert &amp; Beaucournu, 1985
 Tyrannochthonius akaelus Mahnert, 2009
 Tyrannochthonius amazonicus Mahnert, 1979
 Tyrannochthonius antridraconis Mahnert, 2009
@@ -996,7 +1014,7 @@
 Tyrannochthonius ferox Mahnert, 1978, désormais Lagynochthonius ferox (Mahnert, 1978)
 Tyrannochthonius (Lagynochthonius?) flavus Mahnert, 1986, désormais Lagynochthonius flavus (Mahnert, 1986)
 Tyrannochthonius ganshuanensis Mahnert, 2009
-Tyrannochthonius gomyi Mahnert, 1975[69]
+Tyrannochthonius gomyi Mahnert, 1975
 Tyrannochthonius (Lagynochthonius) guasirih Mahnert, 1988, désormais Lagynochthonius guasirih (Mahnert, 1988)
 Tyrannochthonius (Tyrannochthonius) irmleri Mahnert, 1979, désormais Lagynochthonius irmleri (Mahnert, 1979)
 Tyrannochthonius (Lagynochthonius?) kenyensis Mahnert, 1986, désormais Lagynochthonius kenyensis (Mahnert, 1986)
@@ -1016,7 +1034,7 @@
 Withius fuscus Mahnert, 1988
 Withius gracilipalpus Mahnert, 1988
 Withius nanus Mahnert, 1988
-Zaona cavicola Mahnert, 2001[72]
+Zaona cavicola Mahnert, 2001
 </t>
         </is>
       </c>
@@ -1045,9 +1063,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Volker Mahnert est l'auteur de quelque 200 publications[89], dont :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Volker Mahnert est l'auteur de quelque 200 publications, dont :
 </t>
         </is>
       </c>
